--- a/data_year/zb/综合/企业法人单位数/按控股情况分企业法人单位数.xlsx
+++ b/data_year/zb/综合/企业法人单位数/按控股情况分企业法人单位数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,25 +561,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8208273</v>
+        <v>8517893</v>
       </c>
       <c r="C5" t="n">
-        <v>545448</v>
+        <v>626211</v>
       </c>
       <c r="D5" t="n">
-        <v>220508</v>
+        <v>226528</v>
       </c>
       <c r="E5" t="n">
-        <v>85896</v>
+        <v>86359</v>
       </c>
       <c r="F5" t="n">
-        <v>83840</v>
+        <v>84466</v>
       </c>
       <c r="G5" t="n">
-        <v>7059996</v>
+        <v>7271891</v>
       </c>
       <c r="H5" t="n">
-        <v>212585</v>
+        <v>222438</v>
       </c>
     </row>
     <row r="6">
@@ -748,6 +748,34 @@
       </c>
       <c r="H11" t="n">
         <v>180550</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>28665212</v>
+      </c>
+      <c r="C12" t="n">
+        <v>365021</v>
+      </c>
+      <c r="D12" t="n">
+        <v>323277</v>
+      </c>
+      <c r="E12" t="n">
+        <v>109043</v>
+      </c>
+      <c r="F12" t="n">
+        <v>135201</v>
+      </c>
+      <c r="G12" t="n">
+        <v>27545002</v>
+      </c>
+      <c r="H12" t="n">
+        <v>187668</v>
       </c>
     </row>
   </sheetData>
